--- a/Math/Defaults_20190720.xlsx
+++ b/Math/Defaults_20190720.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EA9495-56BF-441A-A760-7253E9315D67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFC3997-A2AF-4646-99F3-41DCDBCC98B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{051453E4-FCFD-41AF-B9D6-15BBE52EEA42}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{051453E4-FCFD-41AF-B9D6-15BBE52EEA42}"/>
   </bookViews>
   <sheets>
     <sheet name="9xxx" sheetId="1" r:id="rId1"/>
+    <sheet name="13-14xxx" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'9xxx'!$A$1:$E$37</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Used</t>
   </si>
@@ -50,11 +51,17 @@
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,10 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1C3686-9B61-4D3D-9B31-FD6CE3884473}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1211,4 +1219,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C92C894-E216-41ED-A1D6-E38B5D62101A}">
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="8.83984375" style="3"/>
+    <col min="4" max="4" width="9.47265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>"(" &amp; RIGHT(" " &amp; B2, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C2, "###0.0"), 5) &amp; ")"</f>
+        <v>( 0L,   0.1)</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">1+B2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D2:D4" si="1">"(" &amp; RIGHT(" " &amp; B3, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C3, "###0.0"), 5) &amp; ")"</f>
+        <v>( 1L,   1.0)</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>( 2L,  10.0)</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>"(" &amp; RIGHT(" " &amp; B5, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C5, "###0.0"), 5) &amp; ")"</f>
+        <v>( 3L, 100.0)</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6:D11" si="2">"(" &amp; RIGHT(" " &amp; B6, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C6, "###0.0"), 5) &amp; ")"</f>
+        <v>( 4L,   0.2)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>( 5L,   0.5)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>( 6L,   2.0)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>( 7L,   5.0)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>( 8L,  20.0)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>( 9L,  50.0)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Math/Defaults_20190720.xlsx
+++ b/Math/Defaults_20190720.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFC3997-A2AF-4646-99F3-41DCDBCC98B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DF837-4666-45D2-A9A3-2D6565FAFB27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{051453E4-FCFD-41AF-B9D6-15BBE52EEA42}"/>
   </bookViews>
@@ -97,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,14 +1224,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C92C894-E216-41ED-A1D6-E38B5D62101A}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="8.83984375" style="3"/>
-    <col min="4" max="4" width="9.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" style="4"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1242,26 +1243,26 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>0.1</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>"(" &amp; RIGHT(" " &amp; B2, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C2, "###0.0"), 5) &amp; ")"</f>
-        <v>( 0L,   0.1)</v>
+        <f>"(" &amp; RIGHT(" " &amp; B2, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C2, "###0.00"), 5) &amp; ")"</f>
+        <v>( 0L,  0.10)</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">1+B2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+        <f t="shared" ref="B3:B14" si="0">1+B2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D2:D4" si="1">"(" &amp; RIGHT(" " &amp; B3, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C3, "###0.0"), 5) &amp; ")"</f>
-        <v>( 1L,   1.0)</v>
+        <f t="shared" ref="D3:D14" si="1">"(" &amp; RIGHT(" " &amp; B3, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C3, "###0.00"), 5) &amp; ")"</f>
+        <v>( 1L,  1.00)</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1270,12 +1271,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 2L,  10.0)</v>
+        <v>( 2L, 10.00)</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1284,12 +1285,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>100</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>"(" &amp; RIGHT(" " &amp; B5, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C5, "###0.0"), 5) &amp; ")"</f>
-        <v>( 3L, 100.0)</v>
+        <f t="shared" si="1"/>
+        <v>( 3L, 00.00)</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1298,12 +1299,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0.2</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D11" si="2">"(" &amp; RIGHT(" " &amp; B6, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C6, "###0.0"), 5) &amp; ")"</f>
-        <v>( 4L,   0.2)</v>
+        <f t="shared" si="1"/>
+        <v>( 4L,  0.20)</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1311,12 +1312,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0.5</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>( 5L,   0.5)</v>
+        <f t="shared" si="1"/>
+        <v>( 5L,  0.50)</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1324,12 +1325,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>( 6L,   2.0)</v>
+        <f t="shared" si="1"/>
+        <v>( 6L,  2.00)</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1337,12 +1338,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>( 7L,   5.0)</v>
+        <f t="shared" si="1"/>
+        <v>( 7L,  5.00)</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1350,12 +1351,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>( 8L,  20.0)</v>
+        <f t="shared" si="1"/>
+        <v>( 8L, 20.00)</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1363,12 +1364,51 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>( 9L,  50.0)</v>
+        <f t="shared" si="1"/>
+        <v>( 9L, 50.00)</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(10L,  0.01)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(11L,  0.02)</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>(12L,  0.05)</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Defaults_20190720.xlsx
+++ b/Math/Defaults_20190720.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DF837-4666-45D2-A9A3-2D6565FAFB27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CE4C0-D569-4D00-8C6F-9135337B6D52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{051453E4-FCFD-41AF-B9D6-15BBE52EEA42}"/>
   </bookViews>
@@ -1226,7 +1226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C92C894-E216-41ED-A1D6-E38B5D62101A}">
   <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1247,8 +1249,8 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>"(" &amp; RIGHT(" " &amp; B2, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C2, "###0.00"), 5) &amp; ")"</f>
-        <v>( 0L,  0.10)</v>
+        <f>"(" &amp; RIGHT(" " &amp; B2, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C2, "###0.00"), 6) &amp; ")"</f>
+        <v>( 0L,   0.10)</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1261,8 +1263,8 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D14" si="1">"(" &amp; RIGHT(" " &amp; B3, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C3, "###0.00"), 5) &amp; ")"</f>
-        <v>( 1L,  1.00)</v>
+        <f t="shared" ref="D3:D14" si="1">"(" &amp; RIGHT(" " &amp; B3, 2) &amp; "L, " &amp; RIGHT("  " &amp; TEXT(C3, "###0.00"), 6) &amp; ")"</f>
+        <v>( 1L,   1.00)</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1276,7 +1278,7 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 2L, 10.00)</v>
+        <v>( 2L,  10.00)</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1290,7 +1292,7 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 3L, 00.00)</v>
+        <v>( 3L, 100.00)</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -1304,7 +1306,7 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 4L,  0.20)</v>
+        <v>( 4L,   0.20)</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1317,7 +1319,7 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 5L,  0.50)</v>
+        <v>( 5L,   0.50)</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1330,7 +1332,7 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 6L,  2.00)</v>
+        <v>( 6L,   2.00)</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1343,7 +1345,7 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 7L,  5.00)</v>
+        <v>( 7L,   5.00)</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1356,7 +1358,7 @@
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 8L, 20.00)</v>
+        <v>( 8L,  20.00)</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1369,7 +1371,7 @@
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>( 9L, 50.00)</v>
+        <v>( 9L,  50.00)</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1382,7 +1384,7 @@
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>(10L,  0.01)</v>
+        <v>(10L,   0.01)</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1395,7 +1397,7 @@
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>(11L,  0.02)</v>
+        <v>(11L,   0.02)</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -1408,7 +1410,7 @@
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>(12L,  0.05)</v>
+        <v>(12L,   0.05)</v>
       </c>
     </row>
   </sheetData>
